--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_26_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_26_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12801.60282337439</v>
+        <v>2547518.961851502</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12801.60282337439</v>
+        <v>2547518.961851502</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28526.60894123518</v>
+        <v>1712757.986849311</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28526.60894123518</v>
+        <v>1712757.986849311</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1037819301.315569</v>
+        <v>43850744.13779338</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11288.23051901834</v>
+        <v>1262007.760178561</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20172.15720264073</v>
+        <v>2111796.570035857</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29056.0838862631</v>
+        <v>2961585.379893155</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38632.19607764533</v>
+        <v>3736136.411845862</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>48331.19534149698</v>
+        <v>4535141.97121999</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>57439.99995381501</v>
+        <v>5409265.90749632</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66425.92371951209</v>
+        <v>6259547.61614792</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>75410.83137251019</v>
+        <v>7109627.118372418</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84991.64207834061</v>
+        <v>7882863.602893753</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>94692.46968813144</v>
+        <v>8682233.00310977</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>104391.4689519831</v>
+        <v>9481238.562483897</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>114090.4682158348</v>
+        <v>10280244.12185803</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>123789.4674796865</v>
+        <v>11079249.68123217</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>133488.4667435383</v>
+        <v>11878255.2406063</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>143193.1806345371</v>
+        <v>12676148.45897617</v>
       </c>
     </row>
   </sheetData>
